--- a/data/facts/gen1/eclac/FacebookData.xlsx
+++ b/data/facts/gen1/eclac/FacebookData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Trinidad and Tobago</t>
   </si>
@@ -113,6 +113,60 @@
   </si>
   <si>
     <t>Aruba</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>ECLAC Total</t>
   </si>
 </sst>
 </file>
@@ -401,11 +455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="90589824"/>
-        <c:axId val="93393280"/>
+        <c:axId val="209271808"/>
+        <c:axId val="209273600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90589824"/>
+        <c:axId val="209271808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93393280"/>
+        <c:crossAx val="209273600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -422,7 +476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93393280"/>
+        <c:axId val="209273600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90589824"/>
+        <c:crossAx val="209271808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -460,7 +514,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674554" cy="6293304"/>
+    <xdr:ext cx="8652993" cy="6278451"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -795,15 +849,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B4:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -861,15 +917,15 @@
         <v>19200</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">B3+C3</f>
+        <f t="shared" ref="D3:D43" si="0">B3+C3</f>
         <v>34200</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E25" si="1">B3/D3</f>
+        <f t="shared" ref="E3:E43" si="1">B3/D3</f>
         <v>0.43859649122807015</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F25" si="2">C3/D3</f>
+        <f t="shared" ref="F3:F43" si="2">C3/D3</f>
         <v>0.56140350877192979</v>
       </c>
     </row>
@@ -1377,6 +1433,422 @@
       <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>0.48717948717948717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>11800000</v>
+      </c>
+      <c r="C26">
+        <v>12800000</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>24600000</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47967479674796748</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52032520325203258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>1460000</v>
+      </c>
+      <c r="C27">
+        <v>1160000</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2620000</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5572519083969466</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44274809160305345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>42000000</v>
+      </c>
+      <c r="C28">
+        <v>48000000</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>90000000</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>5000000</v>
+      </c>
+      <c r="C29">
+        <v>5400000</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>10400000</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48076923076923078</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51923076923076927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>10200000</v>
+      </c>
+      <c r="C30">
+        <v>10400000</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>20600000</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49514563106796117</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50485436893203883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>1220000</v>
+      </c>
+      <c r="C31">
+        <v>1200000</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2420000</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50413223140495866</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49586776859504134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>3800000</v>
+      </c>
+      <c r="C32">
+        <v>3400000</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>7200000</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47222222222222221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>1160000</v>
+      </c>
+      <c r="C33">
+        <v>1040000</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2200000</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47272727272727272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>1760000</v>
+      </c>
+      <c r="C34">
+        <v>1400000</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3160000</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55696202531645567</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44303797468354428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>840000</v>
+      </c>
+      <c r="C35">
+        <v>880000</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1720000</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48837209302325579</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>26000000</v>
+      </c>
+      <c r="C36">
+        <v>26000000</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>52000000</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>580000</v>
+      </c>
+      <c r="C37">
+        <v>560000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1140000</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50877192982456143</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49122807017543857</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>600000</v>
+      </c>
+      <c r="C38">
+        <v>640000</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1240000</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5161290322580645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>1100000</v>
+      </c>
+      <c r="C39">
+        <v>1020000</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2120000</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51886792452830188</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48113207547169812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>7000000</v>
+      </c>
+      <c r="C40">
+        <v>5800000</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>12800000</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.546875</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>940000</v>
+      </c>
+      <c r="C41">
+        <v>1060000</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>5200000</v>
+      </c>
+      <c r="C42">
+        <v>6000000</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>11200000</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <f>SUM(B2:B42)</f>
+        <v>123232120</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C2:C42)</f>
+        <v>129510040</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>252742160</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48758038627192235</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51241961372807765</v>
       </c>
     </row>
   </sheetData>
